--- a/REGULAR/OJT/GUANEZO, WILSON.xlsx
+++ b/REGULAR/OJT/GUANEZO, WILSON.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="11010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -19,9 +24,9 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="201">
   <si>
     <t>PERIOD</t>
   </si>
@@ -619,19 +624,40 @@
   </si>
   <si>
     <t>DOMESTIC E. 3/9</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>11/3,6/2023</t>
+  </si>
+  <si>
+    <t>11/13-30/2023,12/01-15/2023</t>
+  </si>
+  <si>
+    <t>12/18-22/2023</t>
+  </si>
+  <si>
+    <t>FL(23-0-0)</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,6 +1060,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1070,9 +1099,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,7 +1127,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1118,7 +1144,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1133,7 +1159,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1175,7 +1201,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1235,7 +1261,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1248,7 +1274,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1263,7 +1289,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1281,7 +1307,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1298,7 +1324,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1317,7 +1343,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1334,7 +1360,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1350,7 +1376,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1367,7 +1393,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1386,7 +1412,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1403,7 +1429,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1419,7 +1445,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1476,7 +1502,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3039,7 +3065,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3056,14 +3082,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K457" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K479" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
     <tableColumn id="3" name="EARNED" dataDxfId="18"/>
     <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
     <tableColumn id="5" name="BALANCE" dataDxfId="16">
-      <calculatedColumnFormula>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
     <tableColumn id="7" name="EARNED " dataDxfId="14">
@@ -3071,7 +3097,7 @@
     </tableColumn>
     <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
     <tableColumn id="9" name="BALANCE " dataDxfId="12">
-      <calculatedColumnFormula>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
     <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
@@ -3405,14 +3431,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3422,7 +3448,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3430,91 +3456,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K457"/>
+  <dimension ref="A2:K479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1884" topLeftCell="A446" activePane="bottomLeft"/>
-      <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="A456" sqref="A456"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A463" activePane="bottomLeft"/>
+      <selection activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="E475" sqref="E475"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="65"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="66"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1">
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="66"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3522,7 +3548,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3535,24 +3561,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3587,7 +3613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3595,8 +3621,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>124.38699999999994</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>144.38699999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3605,13 +3631,13 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>258.125</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>261.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3633,7 +3659,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>34780</v>
       </c>
@@ -3651,7 +3677,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34790</v>
       </c>
@@ -3671,7 +3697,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>34820</v>
@@ -3692,7 +3718,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A20" si="0">EDATE(A13,1)</f>
         <v>34851</v>
@@ -3713,7 +3739,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -3734,7 +3760,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -3755,7 +3781,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -3776,7 +3802,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -3797,7 +3823,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f>EDATE(A18,1)</f>
         <v>35004</v>
@@ -3818,7 +3844,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -3839,7 +3865,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>44</v>
       </c>
@@ -3857,7 +3883,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35065</v>
       </c>
@@ -3877,7 +3903,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f>EDATE(A22,1)</f>
         <v>35096</v>
@@ -3898,7 +3924,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" ref="A24:A33" si="1">EDATE(A23,1)</f>
         <v>35125</v>
@@ -3923,7 +3949,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>35156</v>
@@ -3944,7 +3970,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>35186</v>
@@ -3965,7 +3991,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>35217</v>
@@ -3986,7 +4012,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f>EDATE(A27,1)</f>
         <v>35247</v>
@@ -4007,7 +4033,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>35278</v>
@@ -4028,7 +4054,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="1"/>
         <v>35309</v>
@@ -4049,7 +4075,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>35339</v>
@@ -4070,7 +4096,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f>EDATE(A31,1)</f>
         <v>35370</v>
@@ -4091,7 +4117,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>35400</v>
@@ -4112,7 +4138,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>46</v>
       </c>
@@ -4130,7 +4156,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>35431</v>
       </c>
@@ -4154,7 +4180,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13">
@@ -4172,7 +4198,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>35462</v>
@@ -4193,7 +4219,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" ref="A38:A47" si="2">EDATE(A37,1)</f>
         <v>35490</v>
@@ -4214,7 +4240,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="2"/>
         <v>35521</v>
@@ -4235,7 +4261,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="2"/>
         <v>35551</v>
@@ -4256,7 +4282,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>35582</v>
@@ -4277,7 +4303,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>35612</v>
@@ -4298,7 +4324,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="2"/>
         <v>35643</v>
@@ -4325,7 +4351,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="2"/>
         <v>35674</v>
@@ -4346,7 +4372,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>35704</v>
@@ -4367,7 +4393,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f>EDATE(A45,1)</f>
         <v>35735</v>
@@ -4388,7 +4414,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>35765</v>
@@ -4413,7 +4439,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
         <v>53</v>
       </c>
@@ -4431,7 +4457,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>35796</v>
       </c>
@@ -4451,7 +4477,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A49,1)</f>
         <v>35827</v>
@@ -4478,7 +4504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" ref="A51:A59" si="3">EDATE(A50,1)</f>
         <v>35855</v>
@@ -4499,7 +4525,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="3"/>
         <v>35886</v>
@@ -4520,7 +4546,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="3"/>
         <v>35916</v>
@@ -4541,7 +4567,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>35947</v>
@@ -4562,7 +4588,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="3"/>
         <v>35977</v>
@@ -4583,7 +4609,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="3"/>
         <v>36008</v>
@@ -4604,7 +4630,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="3"/>
         <v>36039</v>
@@ -4625,7 +4651,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>36069</v>
@@ -4646,7 +4672,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>36100</v>
@@ -4667,7 +4693,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f>EDATE(A59,1)</f>
         <v>36130</v>
@@ -4692,7 +4718,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>56</v>
       </c>
@@ -4710,7 +4736,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36161</v>
       </c>
@@ -4736,7 +4762,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A62,1)</f>
         <v>36192</v>
@@ -4763,7 +4789,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" ref="A64:A76" si="4">EDATE(A63,1)</f>
         <v>36220</v>
@@ -4790,7 +4816,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>47</v>
@@ -4812,7 +4838,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36251</v>
@@ -4837,7 +4863,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>64</v>
@@ -4861,7 +4887,7 @@
         <v>46844</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f>EDATE(A66,1)</f>
         <v>36281</v>
@@ -4886,7 +4912,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="15" t="s">
         <v>58</v>
@@ -4910,7 +4936,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="52" t="s">
         <v>67</v>
       </c>
@@ -4930,7 +4956,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="50">
         <f>EDATE(A68,1)</f>
         <v>36312</v>
@@ -4951,7 +4977,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="4"/>
         <v>36342</v>
@@ -4972,7 +4998,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -4993,7 +5019,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f t="shared" si="4"/>
         <v>36404</v>
@@ -5014,7 +5040,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" si="4"/>
         <v>36434</v>
@@ -5035,7 +5061,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f t="shared" si="4"/>
         <v>36465</v>
@@ -5056,7 +5082,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f>EDATE(A76,1)</f>
         <v>36495</v>
@@ -5081,7 +5107,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>69</v>
       </c>
@@ -5099,7 +5125,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36526</v>
       </c>
@@ -5119,7 +5145,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f>EDATE(A79,1)</f>
         <v>36557</v>
@@ -5140,7 +5166,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" ref="A81:A90" si="5">EDATE(A80,1)</f>
         <v>36586</v>
@@ -5161,7 +5187,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="5"/>
         <v>36617</v>
@@ -5182,7 +5208,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="5"/>
         <v>36647</v>
@@ -5205,7 +5231,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -5223,7 +5249,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A83,1)</f>
         <v>36678</v>
@@ -5244,7 +5270,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -5265,7 +5291,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -5286,7 +5312,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="5"/>
         <v>36770</v>
@@ -5307,7 +5333,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="5"/>
         <v>36800</v>
@@ -5328,7 +5354,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="5"/>
         <v>36831</v>
@@ -5349,7 +5375,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f>EDATE(A90,1)</f>
         <v>36861</v>
@@ -5374,7 +5400,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>72</v>
       </c>
@@ -5392,7 +5418,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>36892</v>
       </c>
@@ -5412,7 +5438,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f>EDATE(A93,1)</f>
         <v>36923</v>
@@ -5433,7 +5459,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" ref="A95:A102" si="6">EDATE(A94,1)</f>
         <v>36951</v>
@@ -5454,7 +5480,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="6"/>
         <v>36982</v>
@@ -5475,7 +5501,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="6"/>
         <v>37012</v>
@@ -5496,7 +5522,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="6"/>
         <v>37043</v>
@@ -5517,7 +5543,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -5538,7 +5564,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="6"/>
         <v>37104</v>
@@ -5559,7 +5585,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -5580,7 +5606,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="6"/>
         <v>37165</v>
@@ -5601,7 +5627,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A102,1)</f>
         <v>37196</v>
@@ -5626,7 +5652,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13">
@@ -5644,7 +5670,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f>EDATE(A103,1)</f>
         <v>37226</v>
@@ -5669,7 +5695,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>74</v>
       </c>
@@ -5687,7 +5713,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37257</v>
       </c>
@@ -5707,7 +5733,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f>EDATE(A107,1)</f>
         <v>37288</v>
@@ -5728,7 +5754,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" ref="A109:A124" si="7">EDATE(A108,1)</f>
         <v>37316</v>
@@ -5749,7 +5775,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="7"/>
         <v>37347</v>
@@ -5772,7 +5798,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>75</v>
@@ -5792,7 +5818,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -5810,7 +5836,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A110,1)</f>
         <v>37377</v>
@@ -5831,7 +5857,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="7"/>
         <v>37408</v>
@@ -5856,7 +5882,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13">
@@ -5874,7 +5900,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f>EDATE(A114,1)</f>
         <v>37438</v>
@@ -5899,7 +5925,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13">
@@ -5917,7 +5943,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f>EDATE(A116,1)</f>
         <v>37469</v>
@@ -5938,7 +5964,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="7"/>
         <v>37500</v>
@@ -5963,7 +5989,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>64</v>
@@ -5985,7 +6011,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13">
@@ -6003,7 +6029,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f>EDATE(A119,1)</f>
         <v>37530</v>
@@ -6024,7 +6050,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>37561</v>
@@ -6045,7 +6071,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>37591</v>
@@ -6070,7 +6096,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
         <v>79</v>
       </c>
@@ -6088,7 +6114,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>37622</v>
       </c>
@@ -6108,7 +6134,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f>EDATE(A126,1)</f>
         <v>37653</v>
@@ -6133,7 +6159,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -6151,7 +6177,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f>EDATE(A127,1)</f>
         <v>37681</v>
@@ -6172,7 +6198,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" ref="A130:A132" si="8">EDATE(A129,1)</f>
         <v>37712</v>
@@ -6193,7 +6219,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="8"/>
         <v>37742</v>
@@ -6218,7 +6244,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="8"/>
         <v>37773</v>
@@ -6243,7 +6269,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>64</v>
@@ -6265,7 +6291,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>83</v>
@@ -6287,7 +6313,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f>EDATE(A132,1)</f>
         <v>37803</v>
@@ -6312,7 +6338,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>86</v>
@@ -6334,7 +6360,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f>EDATE(A135,1)</f>
         <v>37834</v>
@@ -6359,7 +6385,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>87</v>
@@ -6381,7 +6407,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f>EDATE(A137,1)</f>
         <v>37865</v>
@@ -6406,7 +6432,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>64</v>
@@ -6428,7 +6454,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>88</v>
@@ -6450,7 +6476,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A139,1)</f>
         <v>37895</v>
@@ -6475,7 +6501,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>89</v>
@@ -6497,7 +6523,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>37926</v>
@@ -6522,7 +6548,7 @@
         <v>43040</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>64</v>
@@ -6544,7 +6570,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>90</v>
@@ -6566,7 +6592,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f>EDATE(A144,1)</f>
         <v>37956</v>
@@ -6591,7 +6617,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13">
@@ -6609,7 +6635,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="48" t="s">
         <v>91</v>
       </c>
@@ -6627,7 +6653,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>37987</v>
       </c>
@@ -6649,7 +6675,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>47</v>
@@ -6669,7 +6695,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>94</v>
@@ -6691,7 +6717,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f>EDATE(A150,1)</f>
         <v>38018</v>
@@ -6716,7 +6742,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>47</v>
@@ -6738,7 +6764,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>95</v>
@@ -6760,7 +6786,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f>EDATE(A153,1)</f>
         <v>38047</v>
@@ -6785,7 +6811,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>75</v>
@@ -6805,7 +6831,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>99</v>
@@ -6827,7 +6853,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f>EDATE(A156,1)</f>
         <v>38078</v>
@@ -6852,7 +6878,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>62</v>
@@ -6874,7 +6900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>101</v>
@@ -6896,7 +6922,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f>EDATE(A159,1)</f>
         <v>38108</v>
@@ -6921,7 +6947,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>64</v>
@@ -6943,7 +6969,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>64</v>
@@ -6965,7 +6991,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>102</v>
@@ -6987,7 +7013,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f>EDATE(A162,1)</f>
         <v>38139</v>
@@ -7012,7 +7038,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13">
@@ -7030,7 +7056,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f>EDATE(A166,1)</f>
         <v>38169</v>
@@ -7055,7 +7081,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>47</v>
@@ -7077,7 +7103,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>64</v>
@@ -7099,7 +7125,7 @@
         <v>47300</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>104</v>
@@ -7121,7 +7147,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A168,1)</f>
         <v>38200</v>
@@ -7146,7 +7172,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" ref="A173" si="9">EDATE(A172,1)</f>
         <v>38231</v>
@@ -7171,7 +7197,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>64</v>
@@ -7193,7 +7219,7 @@
         <v>11202</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13">
@@ -7211,7 +7237,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f>EDATE(A173,1)</f>
         <v>38261</v>
@@ -7236,7 +7262,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>64</v>
@@ -7260,7 +7286,7 @@
         <v>47027</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>38292</v>
@@ -7285,7 +7311,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13">
@@ -7303,7 +7329,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>38322</v>
@@ -7328,7 +7354,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>45</v>
@@ -7350,7 +7376,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="48" t="s">
         <v>110</v>
       </c>
@@ -7368,7 +7394,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>38353</v>
       </c>
@@ -7390,7 +7416,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13">
@@ -7408,7 +7434,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f>EDATE(A183,1)</f>
         <v>38384</v>
@@ -7433,7 +7459,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>62</v>
@@ -7455,7 +7481,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>64</v>
@@ -7477,7 +7503,7 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>114</v>
@@ -7499,7 +7525,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13">
@@ -7517,7 +7543,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f>EDATE(A185,1)</f>
         <v>38412</v>
@@ -7538,7 +7564,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" ref="A191:A199" si="10">EDATE(A190,1)</f>
         <v>38443</v>
@@ -7559,7 +7585,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" si="10"/>
         <v>38473</v>
@@ -7580,7 +7606,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="10"/>
         <v>38504</v>
@@ -7601,7 +7627,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="10"/>
         <v>38534</v>
@@ -7622,7 +7648,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="10"/>
         <v>38565</v>
@@ -7643,7 +7669,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="10"/>
         <v>38596</v>
@@ -7664,7 +7690,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="10"/>
         <v>38626</v>
@@ -7685,7 +7711,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" si="10"/>
         <v>38657</v>
@@ -7706,7 +7732,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="10"/>
         <v>38687</v>
@@ -7727,7 +7753,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="48" t="s">
         <v>116</v>
       </c>
@@ -7745,7 +7771,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>38718</v>
       </c>
@@ -7765,7 +7791,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f>EDATE(A201,1)</f>
         <v>38749</v>
@@ -7788,7 +7814,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13">
@@ -7806,7 +7832,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f>EDATE(A202,1)</f>
         <v>38777</v>
@@ -7827,7 +7853,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f t="shared" ref="A205:A214" si="11">EDATE(A204,1)</f>
         <v>38808</v>
@@ -7850,7 +7876,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13">
@@ -7868,7 +7894,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f>EDATE(A205,1)</f>
         <v>38838</v>
@@ -7889,7 +7915,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" si="11"/>
         <v>38869</v>
@@ -7910,7 +7936,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="11"/>
         <v>38899</v>
@@ -7931,7 +7957,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="11"/>
         <v>38930</v>
@@ -7952,7 +7978,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="11"/>
         <v>38961</v>
@@ -7973,7 +7999,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" si="11"/>
         <v>38991</v>
@@ -7994,7 +8020,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="11"/>
         <v>39022</v>
@@ -8015,7 +8041,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="11"/>
         <v>39052</v>
@@ -8040,7 +8066,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>52</v>
@@ -8059,7 +8085,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="48" t="s">
         <v>121</v>
       </c>
@@ -8074,7 +8100,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>39083</v>
       </c>
@@ -8093,7 +8119,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13">
@@ -8111,7 +8137,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f>EDATE(A217,1)</f>
         <v>39114</v>
@@ -8129,7 +8155,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" ref="A220:A235" si="12">EDATE(A219,1)</f>
         <v>39142</v>
@@ -8151,7 +8177,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13">
@@ -8169,7 +8195,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>39173</v>
@@ -8194,7 +8220,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>62</v>
@@ -8216,7 +8242,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>111</v>
@@ -8236,7 +8262,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>47</v>
@@ -8258,7 +8284,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>62</v>
@@ -8280,7 +8306,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>64</v>
@@ -8302,7 +8328,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13">
@@ -8320,7 +8346,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f>EDATE(A222,1)</f>
         <v>39203</v>
@@ -8341,7 +8367,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" si="12"/>
         <v>39234</v>
@@ -8362,7 +8388,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="12"/>
         <v>39264</v>
@@ -8383,7 +8409,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" si="12"/>
         <v>39295</v>
@@ -8404,7 +8430,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" si="12"/>
         <v>39326</v>
@@ -8425,7 +8451,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f t="shared" si="12"/>
         <v>39356</v>
@@ -8446,7 +8472,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" si="12"/>
         <v>39387</v>
@@ -8467,7 +8493,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A235,1)</f>
         <v>39417</v>
@@ -8492,7 +8518,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="48" t="s">
         <v>129</v>
       </c>
@@ -8510,7 +8536,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>39448</v>
       </c>
@@ -8530,7 +8556,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f>EDATE(A238,1)</f>
         <v>39479</v>
@@ -8551,7 +8577,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" ref="A240:A249" si="13">EDATE(A239,1)</f>
         <v>39508</v>
@@ -8572,7 +8598,7 @@
       <c r="J240" s="12"/>
       <c r="K240" s="15"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="13"/>
         <v>39539</v>
@@ -8593,7 +8619,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="13"/>
         <v>39569</v>
@@ -8614,7 +8640,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f t="shared" si="13"/>
         <v>39600</v>
@@ -8635,7 +8661,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f t="shared" si="13"/>
         <v>39630</v>
@@ -8656,7 +8682,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" si="13"/>
         <v>39661</v>
@@ -8677,7 +8703,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" si="13"/>
         <v>39692</v>
@@ -8698,7 +8724,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" si="13"/>
         <v>39722</v>
@@ -8719,7 +8745,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="13"/>
         <v>39753</v>
@@ -8740,7 +8766,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="13"/>
         <v>39783</v>
@@ -8765,7 +8791,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="48" t="s">
         <v>130</v>
       </c>
@@ -8783,7 +8809,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>39814</v>
       </c>
@@ -8803,7 +8829,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A251,1)</f>
         <v>39845</v>
@@ -8824,7 +8850,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" ref="A253:A263" si="14">EDATE(A252,1)</f>
         <v>39873</v>
@@ -8849,7 +8875,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13">
@@ -8867,7 +8893,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f>EDATE(A253,1)</f>
         <v>39904</v>
@@ -8888,7 +8914,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="14"/>
         <v>39934</v>
@@ -8909,7 +8935,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" si="14"/>
         <v>39965</v>
@@ -8930,7 +8956,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" si="14"/>
         <v>39995</v>
@@ -8951,7 +8977,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="14"/>
         <v>40026</v>
@@ -8972,7 +8998,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="14"/>
         <v>40057</v>
@@ -8993,7 +9019,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="14"/>
         <v>40087</v>
@@ -9014,7 +9040,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f t="shared" si="14"/>
         <v>40118</v>
@@ -9035,7 +9061,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f t="shared" si="14"/>
         <v>40148</v>
@@ -9056,7 +9082,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="48" t="s">
         <v>133</v>
       </c>
@@ -9074,7 +9100,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>40179</v>
       </c>
@@ -9094,7 +9120,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f>EDATE(A265,1)</f>
         <v>40210</v>
@@ -9115,7 +9141,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" ref="A267:A275" si="15">EDATE(A266,1)</f>
         <v>40238</v>
@@ -9136,7 +9162,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" si="15"/>
         <v>40269</v>
@@ -9157,7 +9183,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f t="shared" si="15"/>
         <v>40299</v>
@@ -9178,7 +9204,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f t="shared" si="15"/>
         <v>40330</v>
@@ -9199,7 +9225,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="15"/>
         <v>40360</v>
@@ -9222,7 +9248,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" si="15"/>
         <v>40391</v>
@@ -9243,7 +9269,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" si="15"/>
         <v>40422</v>
@@ -9264,7 +9290,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f t="shared" si="15"/>
         <v>40452</v>
@@ -9285,7 +9311,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f t="shared" si="15"/>
         <v>40483</v>
@@ -9306,7 +9332,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f>EDATE(A275,1)</f>
         <v>40513</v>
@@ -9331,7 +9357,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20"/>
       <c r="C277" s="13">
@@ -9349,7 +9375,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="48" t="s">
         <v>136</v>
       </c>
@@ -9367,7 +9393,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="41">
         <v>40544</v>
       </c>
@@ -9387,7 +9413,7 @@
       <c r="J279" s="12"/>
       <c r="K279" s="15"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A279,1)</f>
         <v>40575</v>
@@ -9408,7 +9434,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" ref="A281:A290" si="16">EDATE(A280,1)</f>
         <v>40603</v>
@@ -9429,7 +9455,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" si="16"/>
         <v>40634</v>
@@ -9450,7 +9476,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="16"/>
         <v>40664</v>
@@ -9471,7 +9497,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="16"/>
         <v>40695</v>
@@ -9492,7 +9518,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f t="shared" si="16"/>
         <v>40725</v>
@@ -9513,7 +9539,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f t="shared" si="16"/>
         <v>40756</v>
@@ -9540,7 +9566,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f t="shared" si="16"/>
         <v>40787</v>
@@ -9561,7 +9587,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f t="shared" si="16"/>
         <v>40817</v>
@@ -9582,7 +9608,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A288,1)</f>
         <v>40848</v>
@@ -9603,7 +9629,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="16"/>
         <v>40878</v>
@@ -9628,7 +9654,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="48" t="s">
         <v>138</v>
       </c>
@@ -9646,7 +9672,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>40909</v>
       </c>
@@ -9670,7 +9696,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20"/>
       <c r="C293" s="13">
@@ -9688,7 +9714,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f>EDATE(A292,1)</f>
         <v>40940</v>
@@ -9709,7 +9735,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f t="shared" ref="A295:A303" si="17">EDATE(A294,1)</f>
         <v>40969</v>
@@ -9730,7 +9756,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" si="17"/>
         <v>41000</v>
@@ -9751,7 +9777,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f t="shared" si="17"/>
         <v>41030</v>
@@ -9772,7 +9798,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f t="shared" si="17"/>
         <v>41061</v>
@@ -9793,7 +9819,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f t="shared" si="17"/>
         <v>41091</v>
@@ -9814,7 +9840,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="17"/>
         <v>41122</v>
@@ -9839,7 +9865,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20"/>
       <c r="C301" s="13">
@@ -9857,7 +9883,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f>EDATE(A300,1)</f>
         <v>41153</v>
@@ -9878,7 +9904,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" si="17"/>
         <v>41183</v>
@@ -9903,7 +9929,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20"/>
       <c r="C304" s="13">
@@ -9921,7 +9947,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f>EDATE(A303,1)</f>
         <v>41214</v>
@@ -9946,7 +9972,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20"/>
       <c r="C306" s="13">
@@ -9964,7 +9990,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>41244</v>
@@ -9989,7 +10015,7 @@
         <v>46357</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20"/>
       <c r="C308" s="13">
@@ -10007,7 +10033,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="48" t="s">
         <v>144</v>
       </c>
@@ -10025,7 +10051,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>41275</v>
       </c>
@@ -10049,7 +10075,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>145</v>
@@ -10071,7 +10097,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20"/>
       <c r="C312" s="13">
@@ -10089,7 +10115,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f>EDATE(A310,1)</f>
         <v>41306</v>
@@ -10114,7 +10140,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20"/>
       <c r="C314" s="13">
@@ -10132,7 +10158,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A313,1)</f>
         <v>41334</v>
@@ -10153,7 +10179,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A330" si="18">EDATE(A315,1)</f>
         <v>41365</v>
@@ -10178,7 +10204,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20"/>
       <c r="C317" s="13">
@@ -10196,7 +10222,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>41395</v>
@@ -10221,7 +10247,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20"/>
       <c r="C319" s="13">
@@ -10239,7 +10265,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f>EDATE(A318,1)</f>
         <v>41426</v>
@@ -10260,7 +10286,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f t="shared" si="18"/>
         <v>41456</v>
@@ -10285,7 +10311,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>52</v>
@@ -10307,7 +10333,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20"/>
       <c r="C323" s="13">
@@ -10325,7 +10351,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f>EDATE(A321,1)</f>
         <v>41487</v>
@@ -10350,7 +10376,7 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20"/>
       <c r="C325" s="13">
@@ -10368,7 +10394,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f>EDATE(A324,1)</f>
         <v>41518</v>
@@ -10393,7 +10419,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>52</v>
@@ -10413,7 +10439,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20"/>
       <c r="C328" s="13">
@@ -10431,7 +10457,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A326,1)</f>
         <v>41548</v>
@@ -10452,7 +10478,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="18"/>
         <v>41579</v>
@@ -10477,7 +10503,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20"/>
       <c r="C331" s="13">
@@ -10495,7 +10521,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f>EDATE(A330,1)</f>
         <v>41609</v>
@@ -10516,8 +10542,8 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11">
-      <c r="A333" s="71" t="s">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" s="59" t="s">
         <v>156</v>
       </c>
       <c r="B333" s="15"/>
@@ -10534,7 +10560,7 @@
       <c r="J333" s="12"/>
       <c r="K333" s="15"/>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>41640</v>
       </c>
@@ -10558,7 +10584,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>158</v>
@@ -10580,7 +10606,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>80</v>
@@ -10602,7 +10628,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20"/>
       <c r="C337" s="13">
@@ -10620,7 +10646,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f>EDATE(A334,1)</f>
         <v>41671</v>
@@ -10641,7 +10667,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f t="shared" ref="A339:A350" si="19">EDATE(A338,1)</f>
         <v>41699</v>
@@ -10666,7 +10692,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>163</v>
@@ -10688,7 +10714,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20"/>
       <c r="C341" s="13">
@@ -10706,7 +10732,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f>EDATE(A339,1)</f>
         <v>41730</v>
@@ -10727,7 +10753,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="19"/>
         <v>41760</v>
@@ -10748,7 +10774,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f>EDATE(A343,1)</f>
         <v>41791</v>
@@ -10771,7 +10797,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13">
@@ -10789,7 +10815,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f>EDATE(A344,1)</f>
         <v>41821</v>
@@ -10810,7 +10836,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f t="shared" si="19"/>
         <v>41852</v>
@@ -10831,7 +10857,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f t="shared" si="19"/>
         <v>41883</v>
@@ -10852,7 +10878,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f t="shared" si="19"/>
         <v>41913</v>
@@ -10873,7 +10899,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f t="shared" si="19"/>
         <v>41944</v>
@@ -10898,7 +10924,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20"/>
       <c r="C351" s="13">
@@ -10916,7 +10942,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f>EDATE(A350,1)</f>
         <v>41974</v>
@@ -10937,7 +10963,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="48" t="s">
         <v>168</v>
       </c>
@@ -10955,7 +10981,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>42005</v>
       </c>
@@ -10975,7 +11001,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f>EDATE(A354,1)</f>
         <v>42036</v>
@@ -10996,7 +11022,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f t="shared" ref="A356:A365" si="20">EDATE(A355,1)</f>
         <v>42064</v>
@@ -11023,7 +11049,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f t="shared" si="20"/>
         <v>42095</v>
@@ -11048,7 +11074,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f t="shared" si="20"/>
         <v>42125</v>
@@ -11075,7 +11101,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>75</v>
@@ -11095,7 +11121,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>42156</v>
@@ -11122,7 +11148,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f t="shared" si="20"/>
         <v>42186</v>
@@ -11143,7 +11169,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <f t="shared" si="20"/>
         <v>42217</v>
@@ -11164,7 +11190,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f t="shared" si="20"/>
         <v>42248</v>
@@ -11185,7 +11211,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="20"/>
         <v>42278</v>
@@ -11206,7 +11232,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f t="shared" si="20"/>
         <v>42309</v>
@@ -11227,7 +11253,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A365,1)</f>
         <v>42339</v>
@@ -11248,7 +11274,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="48" t="s">
         <v>173</v>
       </c>
@@ -11266,7 +11292,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>42370</v>
       </c>
@@ -11286,7 +11312,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f>EDATE(A368,1)</f>
         <v>42401</v>
@@ -11313,7 +11339,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>75</v>
@@ -11333,7 +11359,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -11349,7 +11375,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f>EDATE(A369,1)</f>
         <v>42430</v>
@@ -11370,7 +11396,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f t="shared" ref="A373:A381" si="21">EDATE(A372,1)</f>
         <v>42461</v>
@@ -11391,7 +11417,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f t="shared" si="21"/>
         <v>42491</v>
@@ -11418,7 +11444,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f t="shared" si="21"/>
         <v>42522</v>
@@ -11439,7 +11465,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f t="shared" si="21"/>
         <v>42552</v>
@@ -11460,7 +11486,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f t="shared" si="21"/>
         <v>42583</v>
@@ -11481,7 +11507,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f t="shared" si="21"/>
         <v>42614</v>
@@ -11502,7 +11528,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f t="shared" si="21"/>
         <v>42644</v>
@@ -11523,7 +11549,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f t="shared" si="21"/>
         <v>42675</v>
@@ -11544,7 +11570,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f t="shared" si="21"/>
         <v>42705</v>
@@ -11565,7 +11591,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="48" t="s">
         <v>177</v>
       </c>
@@ -11583,7 +11609,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>42736</v>
       </c>
@@ -11603,7 +11629,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f>EDATE(A383,1)</f>
         <v>42767</v>
@@ -11624,7 +11650,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f t="shared" ref="A385:A394" si="22">EDATE(A384,1)</f>
         <v>42795</v>
@@ -11645,7 +11671,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f t="shared" si="22"/>
         <v>42826</v>
@@ -11666,7 +11692,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" si="22"/>
         <v>42856</v>
@@ -11687,7 +11713,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="22"/>
         <v>42887</v>
@@ -11708,7 +11734,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f t="shared" si="22"/>
         <v>42917</v>
@@ -11729,7 +11755,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" si="22"/>
         <v>42948</v>
@@ -11750,7 +11776,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f t="shared" si="22"/>
         <v>42979</v>
@@ -11771,7 +11797,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" si="22"/>
         <v>43009</v>
@@ -11792,7 +11818,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f t="shared" si="22"/>
         <v>43040</v>
@@ -11813,7 +11839,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f t="shared" si="22"/>
         <v>43070</v>
@@ -11838,7 +11864,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="48" t="s">
         <v>178</v>
       </c>
@@ -11856,7 +11882,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>43101</v>
       </c>
@@ -11876,7 +11902,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="41">
         <f>EDATE(A396,1)</f>
         <v>43132</v>
@@ -11897,7 +11923,7 @@
       <c r="J397" s="12"/>
       <c r="K397" s="15"/>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="41">
         <f t="shared" ref="A398:A406" si="23">EDATE(A397,1)</f>
         <v>43160</v>
@@ -11918,7 +11944,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="41">
         <f t="shared" si="23"/>
         <v>43191</v>
@@ -11943,7 +11969,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="41">
         <f t="shared" si="23"/>
         <v>43221</v>
@@ -11964,7 +11990,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="41">
         <f t="shared" si="23"/>
         <v>43252</v>
@@ -11985,7 +12011,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="41">
         <f t="shared" si="23"/>
         <v>43282</v>
@@ -12006,7 +12032,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="41">
         <f t="shared" si="23"/>
         <v>43313</v>
@@ -12027,7 +12053,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="41">
         <f t="shared" si="23"/>
         <v>43344</v>
@@ -12048,7 +12074,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="41">
         <f t="shared" si="23"/>
         <v>43374</v>
@@ -12069,7 +12095,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="41">
         <f t="shared" si="23"/>
         <v>43405</v>
@@ -12090,7 +12116,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="41">
         <f>EDATE(A406,1)</f>
         <v>43435</v>
@@ -12115,7 +12141,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="48" t="s">
         <v>180</v>
       </c>
@@ -12133,7 +12159,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>43466</v>
       </c>
@@ -12153,7 +12179,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f>EDATE(A409,1)</f>
         <v>43497</v>
@@ -12174,7 +12200,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f t="shared" ref="A411:A420" si="24">EDATE(A410,1)</f>
         <v>43525</v>
@@ -12195,7 +12221,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f t="shared" si="24"/>
         <v>43556</v>
@@ -12216,7 +12242,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f t="shared" si="24"/>
         <v>43586</v>
@@ -12237,7 +12263,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f t="shared" si="24"/>
         <v>43617</v>
@@ -12258,7 +12284,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f t="shared" si="24"/>
         <v>43647</v>
@@ -12279,7 +12305,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f t="shared" si="24"/>
         <v>43678</v>
@@ -12300,7 +12326,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f t="shared" si="24"/>
         <v>43709</v>
@@ -12321,7 +12347,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f t="shared" si="24"/>
         <v>43739</v>
@@ -12342,7 +12368,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f t="shared" si="24"/>
         <v>43770</v>
@@ -12363,7 +12389,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f t="shared" si="24"/>
         <v>43800</v>
@@ -12388,7 +12414,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="48" t="s">
         <v>181</v>
       </c>
@@ -12406,7 +12432,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>43831</v>
       </c>
@@ -12430,7 +12456,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>184</v>
@@ -12450,7 +12476,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>62</v>
@@ -12472,7 +12498,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>114</v>
@@ -12492,7 +12518,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13">
@@ -12510,7 +12536,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f>EDATE(A422,1)</f>
         <v>43862</v>
@@ -12531,7 +12557,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <f t="shared" ref="A428:A437" si="25">EDATE(A427,1)</f>
         <v>43891</v>
@@ -12556,7 +12582,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f t="shared" si="25"/>
         <v>43922</v>
@@ -12577,7 +12603,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f t="shared" si="25"/>
         <v>43952</v>
@@ -12598,7 +12624,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f t="shared" si="25"/>
         <v>43983</v>
@@ -12619,7 +12645,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f t="shared" si="25"/>
         <v>44013</v>
@@ -12646,7 +12672,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>189</v>
@@ -12668,7 +12694,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f>EDATE(A432,1)</f>
         <v>44044</v>
@@ -12689,7 +12715,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f t="shared" si="25"/>
         <v>44075</v>
@@ -12710,7 +12736,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f t="shared" si="25"/>
         <v>44105</v>
@@ -12731,7 +12757,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f t="shared" si="25"/>
         <v>44136</v>
@@ -12752,7 +12778,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <f>EDATE(A437,1)</f>
         <v>44166</v>
@@ -12773,7 +12799,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="48" t="s">
         <v>191</v>
       </c>
@@ -12791,7 +12817,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>44197</v>
       </c>
@@ -12811,7 +12837,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="41">
         <f>EDATE(A440,1)</f>
         <v>44228</v>
@@ -12832,7 +12858,7 @@
       <c r="J441" s="12"/>
       <c r="K441" s="15"/>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="41">
         <f t="shared" ref="A442:A451" si="26">EDATE(A441,1)</f>
         <v>44256</v>
@@ -12853,7 +12879,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="41">
         <f t="shared" si="26"/>
         <v>44287</v>
@@ -12874,7 +12900,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="41">
         <f t="shared" si="26"/>
         <v>44317</v>
@@ -12895,7 +12921,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="41">
         <f t="shared" si="26"/>
         <v>44348</v>
@@ -12916,7 +12942,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="41">
         <f t="shared" si="26"/>
         <v>44378</v>
@@ -12937,7 +12963,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="41">
         <f t="shared" si="26"/>
         <v>44409</v>
@@ -12958,7 +12984,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="41">
         <f t="shared" si="26"/>
         <v>44440</v>
@@ -12979,7 +13005,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="41">
         <f t="shared" si="26"/>
         <v>44470</v>
@@ -13000,7 +13026,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="41">
         <f t="shared" si="26"/>
         <v>44501</v>
@@ -13021,7 +13047,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="41">
         <f t="shared" si="26"/>
         <v>44531</v>
@@ -13046,7 +13072,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="48" t="s">
         <v>192</v>
       </c>
@@ -13055,13 +13081,16 @@
       <c r="D452" s="39"/>
       <c r="E452" s="9"/>
       <c r="F452" s="20"/>
-      <c r="G452" s="13"/>
+      <c r="G452" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H452" s="39"/>
       <c r="I452" s="9"/>
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>44562</v>
       </c>
@@ -13072,13 +13101,16 @@
       <c r="D453" s="39"/>
       <c r="E453" s="9"/>
       <c r="F453" s="20"/>
-      <c r="G453" s="13"/>
+      <c r="G453" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H453" s="39"/>
       <c r="I453" s="9"/>
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f>EDATE(A453,1)</f>
         <v>44593</v>
@@ -13090,15 +13122,18 @@
       <c r="D454" s="39"/>
       <c r="E454" s="9"/>
       <c r="F454" s="20"/>
-      <c r="G454" s="13"/>
+      <c r="G454" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H454" s="39"/>
       <c r="I454" s="9"/>
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
-        <f t="shared" ref="A455:A456" si="27">EDATE(A454,1)</f>
+        <f t="shared" ref="A455:A477" si="27">EDATE(A454,1)</f>
         <v>44621</v>
       </c>
       <c r="B455" s="15" t="s">
@@ -13110,7 +13145,10 @@
       <c r="D455" s="43"/>
       <c r="E455" s="56"/>
       <c r="F455" s="15"/>
-      <c r="G455" s="42"/>
+      <c r="G455" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H455" s="43"/>
       <c r="I455" s="56"/>
       <c r="J455" s="12"/>
@@ -13118,31 +13156,506 @@
         <v>193</v>
       </c>
     </row>
-    <row r="456" spans="1:11">
-      <c r="A456" s="40"/>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A456" s="40">
+        <f t="shared" si="27"/>
+        <v>44652</v>
+      </c>
       <c r="B456" s="20"/>
-      <c r="C456" s="13"/>
+      <c r="C456" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D456" s="39"/>
       <c r="E456" s="9"/>
       <c r="F456" s="20"/>
-      <c r="G456" s="13"/>
+      <c r="G456" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H456" s="39"/>
       <c r="I456" s="9"/>
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11">
-      <c r="A457" s="41"/>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A457" s="40">
+        <f t="shared" si="27"/>
+        <v>44682</v>
+      </c>
       <c r="B457" s="15"/>
-      <c r="C457" s="42"/>
+      <c r="C457" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D457" s="43"/>
       <c r="E457" s="56"/>
       <c r="F457" s="15"/>
-      <c r="G457" s="42"/>
+      <c r="G457" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H457" s="43"/>
       <c r="I457" s="56"/>
       <c r="J457" s="12"/>
       <c r="K457" s="15"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A458" s="40">
+        <f t="shared" si="27"/>
+        <v>44713</v>
+      </c>
+      <c r="B458" s="20"/>
+      <c r="C458" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D458" s="39"/>
+      <c r="E458" s="9"/>
+      <c r="F458" s="20"/>
+      <c r="G458" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H458" s="39"/>
+      <c r="I458" s="9"/>
+      <c r="J458" s="11"/>
+      <c r="K458" s="20"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A459" s="40">
+        <f t="shared" si="27"/>
+        <v>44743</v>
+      </c>
+      <c r="B459" s="20"/>
+      <c r="C459" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D459" s="39"/>
+      <c r="E459" s="9"/>
+      <c r="F459" s="20"/>
+      <c r="G459" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H459" s="39"/>
+      <c r="I459" s="9"/>
+      <c r="J459" s="11"/>
+      <c r="K459" s="20"/>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A460" s="40">
+        <f t="shared" si="27"/>
+        <v>44774</v>
+      </c>
+      <c r="B460" s="20"/>
+      <c r="C460" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D460" s="39"/>
+      <c r="E460" s="9"/>
+      <c r="F460" s="20"/>
+      <c r="G460" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H460" s="39"/>
+      <c r="I460" s="9"/>
+      <c r="J460" s="11"/>
+      <c r="K460" s="20"/>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A461" s="40">
+        <f t="shared" si="27"/>
+        <v>44805</v>
+      </c>
+      <c r="B461" s="20"/>
+      <c r="C461" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D461" s="39"/>
+      <c r="E461" s="9"/>
+      <c r="F461" s="20"/>
+      <c r="G461" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H461" s="39"/>
+      <c r="I461" s="9"/>
+      <c r="J461" s="11"/>
+      <c r="K461" s="20"/>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A462" s="40">
+        <f t="shared" si="27"/>
+        <v>44835</v>
+      </c>
+      <c r="B462" s="20"/>
+      <c r="C462" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D462" s="39"/>
+      <c r="E462" s="9"/>
+      <c r="F462" s="20"/>
+      <c r="G462" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H462" s="39"/>
+      <c r="I462" s="9"/>
+      <c r="J462" s="11"/>
+      <c r="K462" s="20"/>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A463" s="40">
+        <f t="shared" si="27"/>
+        <v>44866</v>
+      </c>
+      <c r="B463" s="20"/>
+      <c r="C463" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D463" s="39"/>
+      <c r="E463" s="9"/>
+      <c r="F463" s="20"/>
+      <c r="G463" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H463" s="39"/>
+      <c r="I463" s="9"/>
+      <c r="J463" s="11"/>
+      <c r="K463" s="20"/>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A464" s="40">
+        <f t="shared" si="27"/>
+        <v>44896</v>
+      </c>
+      <c r="B464" s="20"/>
+      <c r="C464" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D464" s="39"/>
+      <c r="E464" s="9"/>
+      <c r="F464" s="20"/>
+      <c r="G464" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H464" s="39"/>
+      <c r="I464" s="9"/>
+      <c r="J464" s="11"/>
+      <c r="K464" s="20"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A465" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B465" s="20"/>
+      <c r="C465" s="13"/>
+      <c r="D465" s="39"/>
+      <c r="E465" s="9"/>
+      <c r="F465" s="20"/>
+      <c r="G465" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H465" s="39"/>
+      <c r="I465" s="9"/>
+      <c r="J465" s="11"/>
+      <c r="K465" s="20"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A466" s="40">
+        <f>EDATE(A464,1)</f>
+        <v>44927</v>
+      </c>
+      <c r="B466" s="20"/>
+      <c r="C466" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D466" s="39"/>
+      <c r="E466" s="9"/>
+      <c r="F466" s="20"/>
+      <c r="G466" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H466" s="39"/>
+      <c r="I466" s="9"/>
+      <c r="J466" s="11"/>
+      <c r="K466" s="20"/>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A467" s="40">
+        <f t="shared" si="27"/>
+        <v>44958</v>
+      </c>
+      <c r="B467" s="20"/>
+      <c r="C467" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D467" s="39"/>
+      <c r="E467" s="9"/>
+      <c r="F467" s="20"/>
+      <c r="G467" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H467" s="39"/>
+      <c r="I467" s="9"/>
+      <c r="J467" s="11"/>
+      <c r="K467" s="20"/>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A468" s="40">
+        <f t="shared" si="27"/>
+        <v>44986</v>
+      </c>
+      <c r="B468" s="20"/>
+      <c r="C468" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D468" s="39"/>
+      <c r="E468" s="9"/>
+      <c r="F468" s="20"/>
+      <c r="G468" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H468" s="39"/>
+      <c r="I468" s="9"/>
+      <c r="J468" s="11"/>
+      <c r="K468" s="20"/>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A469" s="40">
+        <f t="shared" si="27"/>
+        <v>45017</v>
+      </c>
+      <c r="B469" s="20"/>
+      <c r="C469" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D469" s="39"/>
+      <c r="E469" s="9"/>
+      <c r="F469" s="20"/>
+      <c r="G469" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H469" s="39"/>
+      <c r="I469" s="9"/>
+      <c r="J469" s="11"/>
+      <c r="K469" s="20"/>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A470" s="40">
+        <f t="shared" si="27"/>
+        <v>45047</v>
+      </c>
+      <c r="B470" s="20"/>
+      <c r="C470" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D470" s="39"/>
+      <c r="E470" s="9"/>
+      <c r="F470" s="20"/>
+      <c r="G470" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H470" s="39"/>
+      <c r="I470" s="9"/>
+      <c r="J470" s="11"/>
+      <c r="K470" s="20"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A471" s="40">
+        <f t="shared" si="27"/>
+        <v>45078</v>
+      </c>
+      <c r="B471" s="20"/>
+      <c r="C471" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D471" s="39"/>
+      <c r="E471" s="9"/>
+      <c r="F471" s="20"/>
+      <c r="G471" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H471" s="39"/>
+      <c r="I471" s="9"/>
+      <c r="J471" s="11"/>
+      <c r="K471" s="20"/>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A472" s="40">
+        <f t="shared" si="27"/>
+        <v>45108</v>
+      </c>
+      <c r="B472" s="20"/>
+      <c r="C472" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D472" s="39"/>
+      <c r="E472" s="9"/>
+      <c r="F472" s="20"/>
+      <c r="G472" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H472" s="39"/>
+      <c r="I472" s="9"/>
+      <c r="J472" s="11"/>
+      <c r="K472" s="20"/>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473" s="40">
+        <f t="shared" si="27"/>
+        <v>45139</v>
+      </c>
+      <c r="B473" s="20"/>
+      <c r="C473" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D473" s="39"/>
+      <c r="E473" s="9"/>
+      <c r="F473" s="20"/>
+      <c r="G473" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H473" s="39"/>
+      <c r="I473" s="9"/>
+      <c r="J473" s="11"/>
+      <c r="K473" s="20"/>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A474" s="40">
+        <f t="shared" si="27"/>
+        <v>45170</v>
+      </c>
+      <c r="B474" s="20"/>
+      <c r="C474" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D474" s="39"/>
+      <c r="E474" s="9"/>
+      <c r="F474" s="20"/>
+      <c r="G474" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H474" s="39"/>
+      <c r="I474" s="9"/>
+      <c r="J474" s="11"/>
+      <c r="K474" s="20"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" s="40">
+        <f t="shared" si="27"/>
+        <v>45200</v>
+      </c>
+      <c r="B475" s="20"/>
+      <c r="C475" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D475" s="39"/>
+      <c r="E475" s="9"/>
+      <c r="F475" s="20"/>
+      <c r="G475" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H475" s="39"/>
+      <c r="I475" s="9"/>
+      <c r="J475" s="11"/>
+      <c r="K475" s="20"/>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476" s="40">
+        <f t="shared" si="27"/>
+        <v>45231</v>
+      </c>
+      <c r="B476" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C476" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D476" s="39"/>
+      <c r="E476" s="9"/>
+      <c r="F476" s="20"/>
+      <c r="G476" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H476" s="39">
+        <v>2</v>
+      </c>
+      <c r="I476" s="9"/>
+      <c r="J476" s="11"/>
+      <c r="K476" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" s="40">
+        <f t="shared" si="27"/>
+        <v>45261</v>
+      </c>
+      <c r="B477" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C477" s="13"/>
+      <c r="D477" s="39"/>
+      <c r="E477" s="9"/>
+      <c r="F477" s="20"/>
+      <c r="G477" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H477" s="39">
+        <v>23</v>
+      </c>
+      <c r="I477" s="9"/>
+      <c r="J477" s="11"/>
+      <c r="K477" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" s="40"/>
+      <c r="B478" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C478" s="13"/>
+      <c r="D478" s="39">
+        <v>5</v>
+      </c>
+      <c r="E478" s="9"/>
+      <c r="F478" s="20"/>
+      <c r="G478" s="13"/>
+      <c r="H478" s="39"/>
+      <c r="I478" s="9"/>
+      <c r="J478" s="11"/>
+      <c r="K478" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" s="40"/>
+      <c r="B479" s="20"/>
+      <c r="C479" s="13"/>
+      <c r="D479" s="39"/>
+      <c r="E479" s="9"/>
+      <c r="F479" s="20"/>
+      <c r="G479" s="13"/>
+      <c r="H479" s="39"/>
+      <c r="I479" s="9"/>
+      <c r="J479" s="11"/>
+      <c r="K479" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13185,7 +13698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -13193,34 +13706,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
-      <c r="D1" s="69" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="J1" s="70" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="J1" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13249,7 +13762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.375</v>
       </c>
@@ -13279,17 +13792,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13303,14 +13816,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13337,7 +13850,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13363,7 +13876,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13389,7 +13902,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13415,7 +13928,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13441,7 +13954,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13467,7 +13980,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13493,7 +14006,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13519,7 +14032,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13539,7 +14052,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13559,7 +14072,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13579,7 +14092,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13600,7 +14113,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13621,7 +14134,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13642,7 +14155,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13663,7 +14176,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13684,7 +14197,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13705,7 +14218,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13726,7 +14239,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13747,7 +14260,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13768,7 +14281,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13789,7 +14302,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13810,7 +14323,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13831,7 +14344,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13852,7 +14365,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13873,7 +14386,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13894,7 +14407,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13915,7 +14428,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13936,7 +14449,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13957,7 +14470,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13978,7 +14491,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13999,7 +14512,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14008,7 +14521,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14017,7 +14530,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14026,7 +14539,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14035,7 +14548,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14044,7 +14557,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14053,7 +14566,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14062,7 +14575,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14071,7 +14584,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14080,7 +14593,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14089,7 +14602,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14098,7 +14611,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14107,7 +14620,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14116,7 +14629,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14125,7 +14638,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14134,7 +14647,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14143,7 +14656,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14152,7 +14665,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14161,7 +14674,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14170,7 +14683,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14179,7 +14692,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14188,7 +14701,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14197,7 +14710,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14206,7 +14719,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14215,7 +14728,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14224,7 +14737,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14233,7 +14746,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14242,7 +14755,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14251,7 +14764,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14260,7 +14773,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
